--- a/mySystem/mySystem/xls/cleancut/0 SOP-MFG-105-R03A 清洁分切批生产记录封面.xlsx
+++ b/mySystem/mySystem/xls/cleancut/0 SOP-MFG-105-R03A 清洁分切批生产记录封面.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2017年工作\2017-生产指令台账\ERP\302，清洁分切记录\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitpro\newnew\mitcpro\mySystem\mySystem\xls\cleancut\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="71">
   <si>
     <r>
       <rPr>
@@ -722,8 +722,12 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">SOP-MFG-302-R01A </t>
+    <t>SOP-MFG-105-R03A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SOP-MFG-302-R04A </t>
     </r>
     <r>
       <rPr>
@@ -733,29 +737,96 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>清洁分切生产指令</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SOP-MFG-302-R02A </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+      <t>清洁分切机运行记录</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>产品批号</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生产数量（米）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>清洁分切机开机确认记录</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SOP-MFG-302-R03A </t>
+      <t>清洁分切工序记录</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>目录</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>清洁分切标签</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>批生产记录 （清洁分切）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SOP-MFG-105-R03A </t>
     </r>
     <r>
       <rPr>
@@ -765,17 +836,13 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>清洁分切领料生产记录</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOP-MFG-105-R03A</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SOP-MFG-105-R03A </t>
+      <t>清洁分切批生产记录</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SOP-MFG-302-R01A </t>
     </r>
     <r>
       <rPr>
@@ -785,13 +852,29 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>清洁分切批生产记录</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SOP-MFG-302-R04A </t>
+      <t>清洁分切生产指令</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SOP-MFG-302-R02A </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>清洁分切机开机确认记录</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SOP-MFG-302-R03A </t>
     </r>
     <r>
       <rPr>
@@ -801,84 +884,13 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>清洁分切机运行记录</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>产品批号</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>生产数量（米）</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>清洁分切工序记录</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>目录</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SOP-MFG-302-R05A </t>
+      <t>清洁分切领料生产记录</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SOP-MFG-110-R01A </t>
     </r>
     <r>
       <rPr>
@@ -888,13 +900,13 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>清洁分切日报表</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SOP-MFG-110-R01A </t>
+      <t>清场记录</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SOP-MFG-302-R05A </t>
     </r>
     <r>
       <rPr>
@@ -904,16 +916,8 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>清场记录</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>清洁分切标签</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>批生产记录 （清洁分切）</t>
+      <t>清洁分切日报表</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1985,12 +1989,57 @@
     <xf numFmtId="49" fontId="12" fillId="3" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="18" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -2013,51 +2062,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="18" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2457,26 +2461,26 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
     </row>
     <row r="3" spans="1:6" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="65" t="s">
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="66"/>
-      <c r="F3" s="67"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="57"/>
     </row>
     <row r="4" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
@@ -2491,8 +2495,8 @@
       <c r="D4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="74"/>
-      <c r="F4" s="75"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="67"/>
     </row>
     <row r="5" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15">
@@ -2505,8 +2509,8 @@
       <c r="D5" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="76"/>
-      <c r="F5" s="77"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="69"/>
     </row>
     <row r="6" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="19">
@@ -2519,8 +2523,8 @@
       <c r="D6" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="68"/>
-      <c r="F6" s="69"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="59"/>
     </row>
     <row r="7" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="15">
@@ -2732,61 +2736,61 @@
       <c r="A22" s="15"/>
       <c r="B22" s="25"/>
       <c r="C22" s="26"/>
-      <c r="D22" s="62" t="s">
+      <c r="D22" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="72" t="s">
+      <c r="E22" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="73"/>
+      <c r="F22" s="63"/>
     </row>
     <row r="23" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="26"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="54"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="65"/>
     </row>
     <row r="24" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="26"/>
-      <c r="D24" s="60" t="s">
+      <c r="D24" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="53" t="s">
+      <c r="E24" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="54"/>
+      <c r="F24" s="65"/>
     </row>
     <row r="25" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="26"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="54"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="65"/>
     </row>
     <row r="26" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="26"/>
-      <c r="D26" s="58" t="s">
+      <c r="D26" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="53" t="s">
+      <c r="E26" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="54"/>
+      <c r="F26" s="65"/>
     </row>
     <row r="27" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
       <c r="B27" s="28"/>
       <c r="C27" s="29"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="56"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="71"/>
     </row>
     <row r="28" spans="1:6" ht="18" x14ac:dyDescent="0.15">
       <c r="A28" s="30"/>
@@ -2797,14 +2801,14 @@
       <c r="F28" s="30"/>
     </row>
     <row r="29" spans="1:6" ht="19.5" x14ac:dyDescent="0.15">
-      <c r="A29" s="57" t="s">
+      <c r="A29" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="57"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="72"/>
     </row>
     <row r="30" spans="1:6" ht="19.5" x14ac:dyDescent="0.15">
       <c r="D30" s="32"/>
@@ -2812,6 +2816,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E24:F25"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="E6:F6"/>
@@ -2819,12 +2829,6 @@
     <mergeCell ref="E22:F23"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E26:F27"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E24:F25"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2838,7 +2842,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2861,12 +2865,12 @@
       <c r="D1" s="30"/>
       <c r="E1" s="30"/>
       <c r="F1" s="37" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="78" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B2" s="79"/>
       <c r="C2" s="79"/>
@@ -2876,7 +2880,7 @@
     </row>
     <row r="3" spans="1:6" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="80" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B3" s="81"/>
       <c r="C3" s="81"/>
@@ -2907,17 +2911,17 @@
         <v>0</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C5" s="47"/>
       <c r="D5" s="48" t="s">
         <v>54</v>
       </c>
       <c r="E5" s="49" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F5" s="50" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2925,7 +2929,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="44" t="s">
@@ -2939,11 +2943,11 @@
         <v>2</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="10"/>
@@ -2953,7 +2957,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="1" t="s">
@@ -2967,7 +2971,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="1" t="s">
@@ -2981,7 +2985,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="1" t="s">
@@ -2995,7 +2999,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="1" t="s">
@@ -3009,7 +3013,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="1" t="s">
@@ -3065,49 +3069,49 @@
       <c r="A17" s="90"/>
       <c r="B17" s="91"/>
       <c r="C17" s="92"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="54"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="65"/>
     </row>
     <row r="18" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="90"/>
       <c r="B18" s="91"/>
       <c r="C18" s="92"/>
-      <c r="D18" s="60" t="s">
+      <c r="D18" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="53" t="s">
+      <c r="E18" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="54"/>
+      <c r="F18" s="65"/>
     </row>
     <row r="19" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="90"/>
       <c r="B19" s="91"/>
       <c r="C19" s="92"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="54"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="65"/>
     </row>
     <row r="20" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="90"/>
       <c r="B20" s="91"/>
       <c r="C20" s="92"/>
-      <c r="D20" s="58" t="s">
+      <c r="D20" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="53" t="s">
+      <c r="E20" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="54"/>
+      <c r="F20" s="65"/>
     </row>
     <row r="21" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="93"/>
       <c r="B21" s="94"/>
       <c r="C21" s="95"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="56"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="11">
